--- a/MainResults.xlsx
+++ b/MainResults.xlsx
@@ -20,7 +20,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Pgas</t>
+  </si>
+  <si>
+    <t>Qgas</t>
+  </si>
+  <si>
+    <t>yCH4</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Pgas</t>
+  </si>
+  <si>
+    <t>Qgas</t>
+  </si>
+  <si>
+    <t>yCH4</t>
+  </si>
   <si>
     <t>pH</t>
   </si>
@@ -462,16 +486,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">

--- a/MainResults.xlsx
+++ b/MainResults.xlsx
@@ -20,7 +20,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Pgas</t>
+  </si>
+  <si>
+    <t>Qgas</t>
+  </si>
+  <si>
+    <t>yCH4</t>
+  </si>
   <si>
     <t>pH</t>
   </si>
@@ -486,30 +498,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>7.252743159617661</v>
+        <v>7.2527432427203564</v>
       </c>
       <c r="B2" s="0">
-        <v>1.0686468099028457</v>
+        <v>1.0686468112957037</v>
       </c>
       <c r="C2" s="0">
-        <v>2935.1819291187667</v>
+        <v>2935.1820064130125</v>
       </c>
       <c r="D2" s="0">
-        <v>0.61444120795158597</v>
+        <v>0.61444120797073343</v>
       </c>
     </row>
   </sheetData>
